--- a/activityData.xlsx
+++ b/activityData.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,16 @@
           <t>mean_immobile_bouts</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>mean_sleep_bouts</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>mean_wake_bouts</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,6 +487,12 @@
       <c r="F2" s="1" t="n">
         <v>0.01689814814814815</v>
       </c>
+      <c r="G2" s="1" t="n">
+        <v>0.01936342592592593</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.001261574074074074</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +517,12 @@
       <c r="F3" s="1" t="n">
         <v>0.007071759259259259</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <v>0.007569444444444445</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.001203703703703704</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -525,6 +547,12 @@
       <c r="F4" s="1" t="n">
         <v>0.005347222222222222</v>
       </c>
+      <c r="G4" s="1" t="n">
+        <v>0.006898148148148148</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.001226851851851852</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,6 +577,12 @@
       <c r="F5" s="1" t="n">
         <v>0.006087962962962963</v>
       </c>
+      <c r="G5" s="1" t="n">
+        <v>0.007974537037037037</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.001412037037037037</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -573,6 +607,12 @@
       <c r="F6" s="1" t="n">
         <v>0.006736111111111111</v>
       </c>
+      <c r="G6" s="1" t="n">
+        <v>0.008449074074074074</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.00150462962962963</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -597,6 +637,12 @@
       <c r="F7" s="1" t="n">
         <v>0.006701388888888889</v>
       </c>
+      <c r="G7" s="1" t="n">
+        <v>0.00880787037037037</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.001122685185185185</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -621,6 +667,12 @@
       <c r="F8" s="1" t="n">
         <v>0.003020833333333333</v>
       </c>
+      <c r="G8" s="1" t="n">
+        <v>0.004398148148148148</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.0006134259259259259</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -645,6 +697,12 @@
       <c r="F9" s="1" t="n">
         <v>0.0125</v>
       </c>
+      <c r="G9" s="1" t="n">
+        <v>0.0153125</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.001527777777777778</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -669,6 +727,12 @@
       <c r="F10" s="1" t="n">
         <v>0.005034722222222223</v>
       </c>
+      <c r="G10" s="1" t="n">
+        <v>0.006481481481481481</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.0009490740740740741</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -693,6 +757,12 @@
       <c r="F11" s="1" t="n">
         <v>0.004340277777777778</v>
       </c>
+      <c r="G11" s="1" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.001990740740740741</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -717,6 +787,12 @@
       <c r="F12" s="1" t="n">
         <v>0.006782407407407407</v>
       </c>
+      <c r="G12" s="1" t="n">
+        <v>0.01122685185185185</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.001631944444444445</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -741,6 +817,12 @@
       <c r="F13" s="1" t="n">
         <v>0.008726851851851852</v>
       </c>
+      <c r="G13" s="1" t="n">
+        <v>0.01008101851851852</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0.001458333333333333</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -765,6 +847,12 @@
       <c r="F14" s="1" t="n">
         <v>0.005543981481481481</v>
       </c>
+      <c r="G14" s="1" t="n">
+        <v>0.007708333333333334</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.001458333333333333</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -789,6 +877,12 @@
       <c r="F15" s="1" t="n">
         <v>0.01069444444444444</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <v>0.01118055555555555</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0.001168981481481482</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -813,6 +907,12 @@
       <c r="F16" s="1" t="n">
         <v>0.007118055555555555</v>
       </c>
+      <c r="G16" s="1" t="n">
+        <v>0.009189814814814816</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0.001481481481481481</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -837,6 +937,12 @@
       <c r="F17" s="1" t="n">
         <v>0.01053240740740741</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <v>0.01200231481481481</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0.00119212962962963</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -861,6 +967,12 @@
       <c r="F18" s="1" t="n">
         <v>0.01047453703703704</v>
       </c>
+      <c r="G18" s="1" t="n">
+        <v>0.01341435185185185</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0.001018518518518518</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -885,6 +997,12 @@
       <c r="F19" s="1" t="n">
         <v>0.004143518518518519</v>
       </c>
+      <c r="G19" s="1" t="n">
+        <v>0.005462962962962963</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.001481481481481481</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -909,6 +1027,12 @@
       <c r="F20" s="1" t="n">
         <v>0.006377314814814815</v>
       </c>
+      <c r="G20" s="1" t="n">
+        <v>0.008310185185185184</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.001423611111111111</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -933,6 +1057,12 @@
       <c r="F21" s="1" t="n">
         <v>0.003078703703703704</v>
       </c>
+      <c r="G21" s="1" t="n">
+        <v>0.003599537037037037</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0.000925925925925926</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -957,6 +1087,12 @@
       <c r="F22" s="1" t="n">
         <v>0.0108912037037037</v>
       </c>
+      <c r="G22" s="1" t="n">
+        <v>0.0133912037037037</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0.0006712962962962962</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -981,6 +1117,12 @@
       <c r="F23" s="1" t="n">
         <v>0.006180555555555555</v>
       </c>
+      <c r="G23" s="1" t="n">
+        <v>0.007743055555555556</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0.001145833333333333</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1005,6 +1147,12 @@
       <c r="F24" s="1" t="n">
         <v>0.01210648148148148</v>
       </c>
+      <c r="G24" s="1" t="n">
+        <v>0.01373842592592593</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0.001145833333333333</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1029,6 +1177,12 @@
       <c r="F25" s="1" t="n">
         <v>0.006979166666666667</v>
       </c>
+      <c r="G25" s="1" t="n">
+        <v>0.008067129629629629</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0.001064814814814815</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1053,6 +1207,12 @@
       <c r="F26" s="1" t="n">
         <v>0.009282407407407408</v>
       </c>
+      <c r="G26" s="1" t="n">
+        <v>0.01146990740740741</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0.0006597222222222222</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1077,6 +1237,12 @@
       <c r="F27" s="1" t="n">
         <v>0.007002314814814815</v>
       </c>
+      <c r="G27" s="1" t="n">
+        <v>0.009664351851851851</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0.0009722222222222222</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1101,6 +1267,12 @@
       <c r="F28" s="1" t="n">
         <v>0.006898148148148148</v>
       </c>
+      <c r="G28" s="1" t="n">
+        <v>0.008425925925925925</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0.001296296296296296</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1125,6 +1297,12 @@
       <c r="F29" s="1" t="n">
         <v>0.004363425925925926</v>
       </c>
+      <c r="G29" s="1" t="n">
+        <v>0.005532407407407408</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0.0008217592592592593</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1149,6 +1327,12 @@
       <c r="F30" s="1" t="n">
         <v>0.00318287037037037</v>
       </c>
+      <c r="G30" s="1" t="n">
+        <v>0.004502314814814815</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0.001087962962962963</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1173,6 +1357,12 @@
       <c r="F31" s="1" t="n">
         <v>0.01050925925925926</v>
       </c>
+      <c r="G31" s="1" t="n">
+        <v>0.01322916666666667</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0.001516203703703704</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1197,6 +1387,12 @@
       <c r="F32" s="1" t="n">
         <v>0.01039351851851852</v>
       </c>
+      <c r="G32" s="1" t="n">
+        <v>0.01420138888888889</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0.0008101851851851852</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1221,6 +1417,12 @@
       <c r="F33" s="1" t="n">
         <v>0.006041666666666667</v>
       </c>
+      <c r="G33" s="1" t="n">
+        <v>0.0065625</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0.001122685185185185</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1245,6 +1447,12 @@
       <c r="F34" s="1" t="n">
         <v>0.005983796296296296</v>
       </c>
+      <c r="G34" s="1" t="n">
+        <v>0.007847222222222222</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0.001076388888888889</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1269,6 +1477,12 @@
       <c r="F35" s="1" t="n">
         <v>0.01063657407407407</v>
       </c>
+      <c r="G35" s="1" t="n">
+        <v>0.0118287037037037</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0.001180555555555556</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1293,6 +1507,12 @@
       <c r="F36" s="1" t="n">
         <v>0.008506944444444444</v>
       </c>
+      <c r="G36" s="1" t="n">
+        <v>0.01033564814814815</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0.001157407407407407</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1317,6 +1537,12 @@
       <c r="F37" s="1" t="n">
         <v>0.007060185185185185</v>
       </c>
+      <c r="G37" s="1" t="n">
+        <v>0.008831018518518519</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>0.001770833333333333</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1341,6 +1567,12 @@
       <c r="F38" s="1" t="n">
         <v>0.007951388888888888</v>
       </c>
+      <c r="G38" s="1" t="n">
+        <v>0.009490740740740741</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>0.001145833333333333</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1365,6 +1597,12 @@
       <c r="F39" s="1" t="n">
         <v>0.008368055555555556</v>
       </c>
+      <c r="G39" s="1" t="n">
+        <v>0.008935185185185185</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0.0009722222222222222</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1389,6 +1627,12 @@
       <c r="F40" s="1" t="n">
         <v>0.008125</v>
       </c>
+      <c r="G40" s="1" t="n">
+        <v>0.008657407407407407</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>0.0008680555555555555</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1413,6 +1657,12 @@
       <c r="F41" s="1" t="n">
         <v>0.01328703703703704</v>
       </c>
+      <c r="G41" s="1" t="n">
+        <v>0.01447916666666667</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>0.001064814814814815</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1437,6 +1687,12 @@
       <c r="F42" s="1" t="n">
         <v>0.004548611111111111</v>
       </c>
+      <c r="G42" s="1" t="n">
+        <v>0.00662037037037037</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>0.001145833333333333</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1461,6 +1717,12 @@
       <c r="F43" s="1" t="n">
         <v>0.008402777777777778</v>
       </c>
+      <c r="G43" s="1" t="n">
+        <v>0.01076388888888889</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0.00162037037037037</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1485,6 +1747,12 @@
       <c r="F44" s="1" t="n">
         <v>0.002881944444444444</v>
       </c>
+      <c r="G44" s="1" t="n">
+        <v>0.003159722222222222</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>0.00125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1509,6 +1777,12 @@
       <c r="F45" s="1" t="n">
         <v>0.006157407407407407</v>
       </c>
+      <c r="G45" s="1" t="n">
+        <v>0.01010416666666667</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>0.001539351851851852</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1533,6 +1807,12 @@
       <c r="F46" s="1" t="n">
         <v>0.007962962962962963</v>
       </c>
+      <c r="G46" s="1" t="n">
+        <v>0.009305555555555555</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>0.0009953703703703704</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1557,6 +1837,12 @@
       <c r="F47" s="1" t="n">
         <v>0.01043981481481481</v>
       </c>
+      <c r="G47" s="1" t="n">
+        <v>0.01222222222222222</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>0.001516203703703704</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1581,6 +1867,12 @@
       <c r="F48" s="1" t="n">
         <v>0.008009259259259259</v>
       </c>
+      <c r="G48" s="1" t="n">
+        <v>0.008622685185185185</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>0.001134259259259259</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1605,6 +1897,12 @@
       <c r="F49" s="1" t="n">
         <v>0.00587962962962963</v>
       </c>
+      <c r="G49" s="1" t="n">
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>0.000787037037037037</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1629,6 +1927,12 @@
       <c r="F50" s="1" t="n">
         <v>0.004270833333333333</v>
       </c>
+      <c r="G50" s="1" t="n">
+        <v>0.006527777777777778</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>0.001018518518518518</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1653,6 +1957,12 @@
       <c r="F51" s="1" t="n">
         <v>0.006481481481481481</v>
       </c>
+      <c r="G51" s="1" t="n">
+        <v>0.006481481481481481</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>0.001273148148148148</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1677,6 +1987,12 @@
       <c r="F52" s="1" t="n">
         <v>0.004166666666666667</v>
       </c>
+      <c r="G52" s="1" t="n">
+        <v>0.004629629629629629</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>0.0008564814814814815</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1701,6 +2017,12 @@
       <c r="F53" s="1" t="n">
         <v>0.004363425925925926</v>
       </c>
+      <c r="G53" s="1" t="n">
+        <v>0.007743055555555556</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>0.001261574074074074</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1725,6 +2047,12 @@
       <c r="F54" s="1" t="n">
         <v>0.007256944444444444</v>
       </c>
+      <c r="G54" s="1" t="n">
+        <v>0.009363425925925926</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>0.001863425925925926</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1749,6 +2077,12 @@
       <c r="F55" s="1" t="n">
         <v>0.003032407407407407</v>
       </c>
+      <c r="G55" s="1" t="n">
+        <v>0.003912037037037037</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>0.001319444444444444</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1773,6 +2107,12 @@
       <c r="F56" s="1" t="n">
         <v>0.003645833333333333</v>
       </c>
+      <c r="G56" s="1" t="n">
+        <v>0.004502314814814815</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>0.001018518518518518</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1797,6 +2137,12 @@
       <c r="F57" s="1" t="n">
         <v>0.008379629629629629</v>
       </c>
+      <c r="G57" s="1" t="n">
+        <v>0.01336805555555555</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>0.0008217592592592593</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1821,6 +2167,12 @@
       <c r="F58" s="1" t="n">
         <v>0.01</v>
       </c>
+      <c r="G58" s="1" t="n">
+        <v>0.01372685185185185</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>0.0009837962962962962</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1845,6 +2197,12 @@
       <c r="F59" s="1" t="n">
         <v>0.008935185185185185</v>
       </c>
+      <c r="G59" s="1" t="n">
+        <v>0.01179398148148148</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>0.0007407407407407407</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1869,6 +2227,12 @@
       <c r="F60" s="1" t="n">
         <v>0.004930555555555555</v>
       </c>
+      <c r="G60" s="1" t="n">
+        <v>0.006805555555555555</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>0.002152777777777778</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1893,6 +2257,12 @@
       <c r="F61" s="1" t="n">
         <v>0.009618055555555555</v>
       </c>
+      <c r="G61" s="1" t="n">
+        <v>0.01099537037037037</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>0.0009606481481481482</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1917,6 +2287,12 @@
       <c r="F62" s="1" t="n">
         <v>0.006597222222222222</v>
       </c>
+      <c r="G62" s="1" t="n">
+        <v>0.008819444444444444</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>0.001435185185185185</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1941,6 +2317,12 @@
       <c r="F63" s="1" t="n">
         <v>0.008240740740740741</v>
       </c>
+      <c r="G63" s="1" t="n">
+        <v>0.009305555555555555</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>0.001006944444444444</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1965,6 +2347,12 @@
       <c r="F64" s="1" t="n">
         <v>0.007210648148148148</v>
       </c>
+      <c r="G64" s="1" t="n">
+        <v>0.008738425925925926</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>0.001099537037037037</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1989,6 +2377,12 @@
       <c r="F65" s="1" t="n">
         <v>0.004976851851851852</v>
       </c>
+      <c r="G65" s="1" t="n">
+        <v>0.00587962962962963</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>0.001203703703703704</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2013,6 +2407,12 @@
       <c r="F66" s="1" t="n">
         <v>0.007453703703703704</v>
       </c>
+      <c r="G66" s="1" t="n">
+        <v>0.009791666666666667</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>0.001319444444444444</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2037,6 +2437,12 @@
       <c r="F67" s="1" t="n">
         <v>0.002534722222222222</v>
       </c>
+      <c r="G67" s="1" t="n">
+        <v>0.002928240740740741</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>0.001215277777777778</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2061,6 +2467,12 @@
       <c r="F68" s="1" t="n">
         <v>0.007546296296296297</v>
       </c>
+      <c r="G68" s="1" t="n">
+        <v>0.008831018518518519</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>0.001099537037037037</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2084,6 +2496,12 @@
       </c>
       <c r="F69" s="1" t="n">
         <v>0.004131944444444444</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>0.005960648148148148</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>0.001296296296296296</v>
       </c>
     </row>
   </sheetData>

--- a/activityData.xlsx
+++ b/activityData.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TEMP</t>
+          <t>NUIT</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -641,186 +641,6 @@
         <v>0.01886574074074074</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.002569444444444445</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A661</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>19</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0.01393518518518519</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.01988425925925926</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0.002395833333333333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A661</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" t="n">
-        <v>30</v>
-      </c>
-      <c r="E9" t="n">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0.008020833333333333</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.01060185185185185</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A661</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>15</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16</v>
-      </c>
-      <c r="E10" t="n">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0.01028935185185185</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.01351851851851852</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>0.002650462962962963</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A661</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>15</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.01274305555555556</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.01706018518518519</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0.002777777777777778</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A661</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26</v>
-      </c>
-      <c r="E12" t="n">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0.006469907407407408</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.008553240740740741</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0.002430555555555556</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A661</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13</v>
-      </c>
-      <c r="E13" t="n">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0.01413194444444445</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.01886574074074074</v>
-      </c>
-      <c r="H13" s="1" t="n">
         <v>0.002569444444444445</v>
       </c>
     </row>

--- a/activityData.xlsx
+++ b/activityData.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +644,66 @@
         <v>0.002569444444444445</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A661</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.01393518518518519</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.01988425925925926</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.002395833333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A661</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.01118055555555555</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.01363425925925926</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.002303240740740741</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activityData.xlsx
+++ b/activityData.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A661</t>
+          <t>P01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.01393518518518519</v>
+        <v>0.005960648148148148</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.01988425925925926</v>
+        <v>0.006516203703703704</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.002395833333333333</v>
+        <v>0.001053240740740741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A661</t>
+          <t>P02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -506,202 +506,262 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.008020833333333333</v>
+        <v>0.006782407407407407</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.01060185185185185</v>
+        <v>0.007326388888888889</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.0025</v>
+        <v>0.001701388888888889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A661</t>
+          <t>P03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.01028935185185185</v>
+        <v>0.004826388888888889</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.01351851851851852</v>
+        <v>0.005798611111111111</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.002650462962962963</v>
+        <v>0.001643518518518519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A661</t>
+          <t>P04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.01274305555555556</v>
+        <v>0.004328703703703704</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.01706018518518519</v>
+        <v>0.005706018518518518</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.001921296296296296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A661</t>
+          <t>P06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.006469907407407408</v>
+        <v>0.006099537037037037</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.008553240740740741</v>
+        <v>0.008564814814814815</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.002430555555555556</v>
+        <v>0.001134259259259259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A661</t>
+          <t>P07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.01413194444444445</v>
+        <v>0.004965277777777778</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.01886574074074074</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.002569444444444445</v>
+        <v>0.001736111111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A661</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.01393518518518519</v>
+        <v>0.005289351851851852</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.01988425925925926</v>
+        <v>0.006412037037037037</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.002395833333333333</v>
+        <v>0.001724537037037037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A661</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.01118055555555555</v>
+        <v>0.00380787037037037</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.01363425925925926</v>
+        <v>0.004467592592592592</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.002303240740740741</v>
+        <v>0.002025462962962963</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>47</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.00474537037037037</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.001273148148148148</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>37</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37</v>
+      </c>
+      <c r="E11" t="n">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.006412037037037037</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.007962962962962963</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.0009722222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/activityData.xlsx
+++ b/activityData.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P01</t>
+          <t>A661</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.005960648148148148</v>
+        <v>0.01393518518518519</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.006516203703703704</v>
+        <v>0.01988425925925926</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.001053240740740741</v>
+        <v>0.002395833333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P02</t>
+          <t>A661</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -506,262 +506,202 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.006782407407407407</v>
+        <v>0.008020833333333333</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.007326388888888889</v>
+        <v>0.01060185185185185</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.001701388888888889</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P03</t>
+          <t>A661</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.004826388888888889</v>
+        <v>0.01028935185185185</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.005798611111111111</v>
+        <v>0.01351851851851852</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.001643518518518519</v>
+        <v>0.002650462962962963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P04</t>
+          <t>A661</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.004328703703703704</v>
+        <v>0.01274305555555556</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.005706018518518518</v>
+        <v>0.01706018518518519</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.001921296296296296</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P06</t>
+          <t>A661</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.006099537037037037</v>
+        <v>0.006469907407407408</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.008564814814814815</v>
+        <v>0.008553240740740741</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.001134259259259259</v>
+        <v>0.002430555555555556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P07</t>
+          <t>A661</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.004965277777777778</v>
+        <v>0.01413194444444445</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.00636574074074074</v>
+        <v>0.01886574074074074</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.001736111111111111</v>
+        <v>0.002569444444444445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>A661</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.005289351851851852</v>
+        <v>0.01393518518518519</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.006412037037037037</v>
+        <v>0.01988425925925926</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.001724537037037037</v>
+        <v>0.002395833333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>A661</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.00380787037037037</v>
+        <v>0.01118055555555555</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.004467592592592592</v>
+        <v>0.01363425925925926</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.002025462962962963</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>47</v>
-      </c>
-      <c r="D10" t="n">
-        <v>48</v>
-      </c>
-      <c r="E10" t="n">
-        <v>74</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.00474537037037037</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>0.001273148148148148</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>37</v>
-      </c>
-      <c r="D11" t="n">
-        <v>37</v>
-      </c>
-      <c r="E11" t="n">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.006412037037037037</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.007962962962962963</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0.0009722222222222222</v>
+        <v>0.002303240740740741</v>
       </c>
     </row>
   </sheetData>
